--- a/datapresentacionventas.xlsx
+++ b/datapresentacionventas.xlsx
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>33257.7</v>
+        <v>39201.9</v>
       </c>
       <c r="F2">
-        <v>8911.9</v>
+        <v>11876</v>
       </c>
       <c r="H2">
-        <v>4412.9</v>
+        <v>2285.3</v>
       </c>
       <c r="I2">
-        <v>10582.7</v>
+        <v>11281.4</v>
       </c>
       <c r="J2">
-        <v>9350.200000000001</v>
+        <v>13759.1</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>38632.7</v>
+        <v>91416.7</v>
       </c>
       <c r="F3">
-        <v>8920.5</v>
+        <v>24560.9</v>
       </c>
       <c r="H3">
-        <v>1977.3</v>
+        <v>5366.7</v>
       </c>
       <c r="I3">
-        <v>5091.8</v>
+        <v>10826.7</v>
       </c>
       <c r="J3">
-        <v>22643</v>
+        <v>50662.4</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>105112.9</v>
+        <v>140383.4</v>
       </c>
       <c r="F4">
-        <v>6899.1</v>
+        <v>16549.6</v>
       </c>
       <c r="H4">
-        <v>2913.4</v>
+        <v>6022.9</v>
       </c>
       <c r="I4">
-        <v>1998.3</v>
+        <v>8316.6</v>
       </c>
       <c r="J4">
-        <v>93302.2</v>
+        <v>109494.2</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>44577.7</v>
+        <v>60063.5</v>
       </c>
       <c r="F5">
-        <v>20766.8</v>
+        <v>27303</v>
       </c>
       <c r="H5">
-        <v>14723</v>
+        <v>21634.2</v>
       </c>
       <c r="I5">
-        <v>6557.2</v>
+        <v>7679.1</v>
       </c>
       <c r="J5">
-        <v>2530.7</v>
+        <v>3447.2</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>48974.3</v>
+        <v>70691.10000000001</v>
       </c>
       <c r="F6">
-        <v>25729.8</v>
+        <v>34108.7</v>
       </c>
       <c r="H6">
-        <v>997.4</v>
+        <v>4510.3</v>
       </c>
       <c r="I6">
-        <v>8250.299999999999</v>
+        <v>11851.9</v>
       </c>
       <c r="J6">
-        <v>13996.7</v>
+        <v>20220.2</v>
       </c>
     </row>
     <row r="7">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>52440</v>
+        <v>58066</v>
       </c>
       <c r="F7">
-        <v>26898</v>
+        <v>26869.7</v>
       </c>
       <c r="G7">
-        <v>2120.9</v>
+        <v>1768.3</v>
       </c>
       <c r="H7">
-        <v>1110.3</v>
+        <v>1356.1</v>
       </c>
       <c r="I7">
-        <v>12960.5</v>
+        <v>14312.8</v>
       </c>
       <c r="J7">
-        <v>9350.200000000001</v>
+        <v>13759.1</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>62439.5</v>
+        <v>115680.6</v>
       </c>
       <c r="F8">
-        <v>6467.4</v>
+        <v>18835.9</v>
       </c>
       <c r="G8">
-        <v>2952.1</v>
+        <v>4735.5</v>
       </c>
       <c r="H8">
-        <v>2521.8</v>
+        <v>5730.4</v>
       </c>
       <c r="I8">
-        <v>27855.3</v>
+        <v>35716.4</v>
       </c>
       <c r="J8">
-        <v>22643</v>
+        <v>50662.4</v>
       </c>
     </row>
     <row r="9">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>105661.7</v>
+        <v>142420.3</v>
       </c>
       <c r="F9">
-        <v>4871</v>
+        <v>15101</v>
       </c>
       <c r="G9">
-        <v>1169.9</v>
+        <v>2487.6</v>
       </c>
       <c r="H9">
-        <v>673.6</v>
+        <v>3705.7</v>
       </c>
       <c r="I9">
-        <v>5645</v>
+        <v>11631.8</v>
       </c>
       <c r="J9">
-        <v>93302.2</v>
+        <v>109494.2</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>31577.3</v>
+        <v>40574.4</v>
       </c>
       <c r="F10">
-        <v>5541.1</v>
+        <v>8107.9</v>
       </c>
       <c r="G10">
-        <v>426.2</v>
+        <v>739.8</v>
       </c>
       <c r="H10">
-        <v>14065.1</v>
+        <v>15960.7</v>
       </c>
       <c r="I10">
-        <v>9014.1</v>
+        <v>12318.8</v>
       </c>
       <c r="J10">
-        <v>2530.7</v>
+        <v>3447.2</v>
       </c>
     </row>
     <row r="11">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>38944.9</v>
+        <v>58875.4</v>
       </c>
       <c r="F11">
-        <v>11993.6</v>
+        <v>19846.7</v>
       </c>
       <c r="G11">
-        <v>3134.2</v>
+        <v>5506.2</v>
       </c>
       <c r="H11">
-        <v>5941.7</v>
+        <v>6277.3</v>
       </c>
       <c r="I11">
-        <v>3878.6</v>
+        <v>7024.9</v>
       </c>
       <c r="J11">
-        <v>13996.7</v>
+        <v>20220.2</v>
       </c>
     </row>
     <row r="12">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>20731.3</v>
+        <v>75243.3</v>
       </c>
       <c r="F12">
-        <v>3874.9</v>
+        <v>26527.2</v>
       </c>
       <c r="G12">
-        <v>705.8</v>
+        <v>2547.1</v>
       </c>
       <c r="H12">
-        <v>1306.4</v>
+        <v>2509.9</v>
       </c>
       <c r="I12">
-        <v>3875.7</v>
+        <v>14467.5</v>
       </c>
       <c r="J12">
-        <v>10968.4</v>
+        <v>29191.6</v>
       </c>
     </row>
     <row r="13">
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="E13">
-        <v>44362.4</v>
+        <v>83866</v>
       </c>
       <c r="F13">
-        <v>7513.8</v>
+        <v>15502.2</v>
       </c>
       <c r="G13">
-        <v>1395</v>
+        <v>6032.1</v>
       </c>
       <c r="H13">
-        <v>3370.6</v>
+        <v>8813.5</v>
       </c>
       <c r="I13">
-        <v>6605.5</v>
+        <v>11206</v>
       </c>
       <c r="J13">
-        <v>25477.7</v>
+        <v>42312.2</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>35146.1</v>
+        <v>110186.3</v>
       </c>
       <c r="F14">
-        <v>12237.3</v>
+        <v>23415.1</v>
       </c>
       <c r="G14">
-        <v>1773.1</v>
+        <v>3770.1</v>
       </c>
       <c r="H14">
-        <v>2811.1</v>
+        <v>5458.1</v>
       </c>
       <c r="I14">
-        <v>6413.7</v>
+        <v>14646.1</v>
       </c>
       <c r="J14">
-        <v>11911.1</v>
+        <v>62896.8</v>
       </c>
     </row>
     <row r="15">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="E15">
-        <v>94993.89999999999</v>
+        <v>124319.1</v>
       </c>
       <c r="F15">
-        <v>24851.3</v>
+        <v>34308.5</v>
       </c>
       <c r="G15">
-        <v>730.1</v>
+        <v>2478.1</v>
       </c>
       <c r="H15">
-        <v>5217</v>
+        <v>6242.4</v>
       </c>
       <c r="I15">
-        <v>27475</v>
+        <v>34499.2</v>
       </c>
       <c r="J15">
-        <v>36720.6</v>
+        <v>46790.9</v>
       </c>
     </row>
     <row r="16">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>63033.4</v>
+        <v>89574.10000000001</v>
       </c>
       <c r="F16">
-        <v>10194.2</v>
+        <v>22458.1</v>
       </c>
       <c r="G16">
-        <v>1228.6</v>
+        <v>2200.6</v>
       </c>
       <c r="H16">
-        <v>920.7000000000001</v>
+        <v>3167</v>
       </c>
       <c r="I16">
-        <v>8354</v>
+        <v>12601.3</v>
       </c>
       <c r="J16">
-        <v>42335.8</v>
+        <v>49147.1</v>
       </c>
     </row>
     <row r="17">
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>106694.5</v>
+        <v>141450.3</v>
       </c>
       <c r="F17">
-        <v>9046.799999999999</v>
+        <v>20609</v>
       </c>
       <c r="G17">
-        <v>821.6</v>
+        <v>1693.5</v>
       </c>
       <c r="H17">
-        <v>3113.8</v>
+        <v>3575.1</v>
       </c>
       <c r="I17">
-        <v>3969.9</v>
+        <v>10567.6</v>
       </c>
       <c r="J17">
-        <v>89742.3</v>
+        <v>105005.1</v>
       </c>
     </row>
     <row r="18">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>40325.3</v>
+        <v>51598.7</v>
       </c>
       <c r="F18">
-        <v>9745.9</v>
+        <v>13467.8</v>
       </c>
       <c r="G18">
-        <v>1706.7</v>
+        <v>2362.3</v>
       </c>
       <c r="H18">
-        <v>5169.9</v>
+        <v>8158</v>
       </c>
       <c r="I18">
-        <v>9429</v>
+        <v>10645.5</v>
       </c>
       <c r="J18">
-        <v>14273.8</v>
+        <v>16965.1</v>
       </c>
     </row>
     <row r="19">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="E19">
-        <v>46469.9</v>
+        <v>66587.5</v>
       </c>
       <c r="F19">
-        <v>18826.5</v>
+        <v>29971.7</v>
       </c>
       <c r="G19">
-        <v>5624</v>
+        <v>5979.1</v>
       </c>
       <c r="H19">
-        <v>956.6</v>
+        <v>1450.7</v>
       </c>
       <c r="I19">
-        <v>7879.9</v>
+        <v>11018.6</v>
       </c>
       <c r="J19">
-        <v>13182.9</v>
+        <v>18167.4</v>
       </c>
     </row>
     <row r="20">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="E20">
-        <v>44689.4</v>
+        <v>81398.60000000001</v>
       </c>
       <c r="F20">
-        <v>5867</v>
+        <v>18818.6</v>
       </c>
       <c r="G20">
-        <v>1926</v>
+        <v>2589</v>
       </c>
       <c r="H20">
-        <v>851.7000000000001</v>
+        <v>1315.2</v>
       </c>
       <c r="I20">
-        <v>26690.4</v>
+        <v>33518.5</v>
       </c>
       <c r="J20">
-        <v>9354.299999999999</v>
+        <v>25157.3</v>
       </c>
     </row>
   </sheetData>

--- a/datapresentacionventas.xlsx
+++ b/datapresentacionventas.xlsx
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>39201.9</v>
+        <v>13013.1</v>
       </c>
       <c r="F2">
-        <v>11876</v>
+        <v>2827.2</v>
       </c>
       <c r="H2">
-        <v>2285.3</v>
+        <v>1981.3</v>
       </c>
       <c r="I2">
-        <v>11281.4</v>
+        <v>5957.8</v>
       </c>
       <c r="J2">
-        <v>13759.1</v>
+        <v>2246.8</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>91416.7</v>
+        <v>31298.5</v>
       </c>
       <c r="F3">
-        <v>24560.9</v>
+        <v>7009.5</v>
       </c>
       <c r="H3">
-        <v>5366.7</v>
+        <v>3298.8</v>
       </c>
       <c r="I3">
-        <v>10826.7</v>
+        <v>8789</v>
       </c>
       <c r="J3">
-        <v>50662.4</v>
+        <v>12201.1</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>140383.4</v>
+        <v>43034.2</v>
       </c>
       <c r="F4">
-        <v>16549.6</v>
+        <v>5298.8</v>
       </c>
       <c r="H4">
-        <v>6022.9</v>
+        <v>-5.3</v>
       </c>
       <c r="I4">
-        <v>8316.6</v>
+        <v>11467.5</v>
       </c>
       <c r="J4">
-        <v>109494.2</v>
+        <v>26273.2</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>60063.5</v>
+        <v>28367.9</v>
       </c>
       <c r="F5">
-        <v>27303</v>
+        <v>12163.3</v>
       </c>
       <c r="H5">
-        <v>21634.2</v>
+        <v>9448.6</v>
       </c>
       <c r="I5">
-        <v>7679.1</v>
+        <v>5950.8</v>
       </c>
       <c r="J5">
-        <v>3447.2</v>
+        <v>805.3</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>70691.10000000001</v>
+        <v>16580.7</v>
       </c>
       <c r="F6">
-        <v>34108.7</v>
+        <v>6583.8</v>
       </c>
       <c r="H6">
-        <v>4510.3</v>
+        <v>1486.8</v>
       </c>
       <c r="I6">
-        <v>11851.9</v>
+        <v>3984.4</v>
       </c>
       <c r="J6">
-        <v>20220.2</v>
+        <v>4525.8</v>
       </c>
     </row>
     <row r="7">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>58066</v>
+        <v>12506</v>
       </c>
       <c r="F7">
-        <v>26869.7</v>
+        <v>3042</v>
       </c>
       <c r="G7">
-        <v>1768.3</v>
+        <v>1350.4</v>
       </c>
       <c r="H7">
-        <v>1356.1</v>
+        <v>1733</v>
       </c>
       <c r="I7">
-        <v>14312.8</v>
+        <v>4133.9</v>
       </c>
       <c r="J7">
-        <v>13759.1</v>
+        <v>2246.8</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>115680.6</v>
+        <v>29694</v>
       </c>
       <c r="F8">
-        <v>18835.9</v>
+        <v>4892.5</v>
       </c>
       <c r="G8">
-        <v>4735.5</v>
+        <v>1020.5</v>
       </c>
       <c r="H8">
-        <v>5730.4</v>
+        <v>2396.3</v>
       </c>
       <c r="I8">
-        <v>35716.4</v>
+        <v>9183.6</v>
       </c>
       <c r="J8">
-        <v>50662.4</v>
+        <v>12201.1</v>
       </c>
     </row>
     <row r="9">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>142420.3</v>
+        <v>45504.7</v>
       </c>
       <c r="F9">
-        <v>15101</v>
+        <v>15246.2</v>
       </c>
       <c r="G9">
-        <v>2487.6</v>
+        <v>667.5</v>
       </c>
       <c r="H9">
-        <v>3705.7</v>
+        <v>273.7</v>
       </c>
       <c r="I9">
-        <v>11631.8</v>
+        <v>3044.1</v>
       </c>
       <c r="J9">
-        <v>109494.2</v>
+        <v>26273.2</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>40574.4</v>
+        <v>17348.4</v>
       </c>
       <c r="F10">
-        <v>8107.9</v>
+        <v>4813.1</v>
       </c>
       <c r="G10">
-        <v>739.8</v>
+        <v>1362</v>
       </c>
       <c r="H10">
-        <v>15960.7</v>
+        <v>6734.5</v>
       </c>
       <c r="I10">
-        <v>12318.8</v>
+        <v>3633.6</v>
       </c>
       <c r="J10">
-        <v>3447.2</v>
+        <v>805.3</v>
       </c>
     </row>
     <row r="11">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>58875.4</v>
+        <v>14759.2</v>
       </c>
       <c r="F11">
-        <v>19846.7</v>
+        <v>1782.7</v>
       </c>
       <c r="G11">
-        <v>5506.2</v>
+        <v>330.2</v>
       </c>
       <c r="H11">
-        <v>6277.3</v>
+        <v>7120.9</v>
       </c>
       <c r="I11">
-        <v>7024.9</v>
+        <v>999.8</v>
       </c>
       <c r="J11">
-        <v>20220.2</v>
+        <v>4525.8</v>
       </c>
     </row>
     <row r="12">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>75243.3</v>
+        <v>13558.2</v>
       </c>
       <c r="F12">
-        <v>26527.2</v>
+        <v>3851.6</v>
       </c>
       <c r="G12">
-        <v>2547.1</v>
+        <v>2709.8</v>
       </c>
       <c r="H12">
-        <v>2509.9</v>
+        <v>694.3</v>
       </c>
       <c r="I12">
-        <v>14467.5</v>
+        <v>1616.9</v>
       </c>
       <c r="J12">
-        <v>29191.6</v>
+        <v>4685.6</v>
       </c>
     </row>
     <row r="13">
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="E13">
-        <v>83866</v>
+        <v>41878.9</v>
       </c>
       <c r="F13">
-        <v>15502.2</v>
+        <v>4082.3</v>
       </c>
       <c r="G13">
-        <v>6032.1</v>
+        <v>2563.6</v>
       </c>
       <c r="H13">
-        <v>8813.5</v>
+        <v>2878.3</v>
       </c>
       <c r="I13">
-        <v>11206</v>
+        <v>4267.4</v>
       </c>
       <c r="J13">
-        <v>42312.2</v>
+        <v>28087.4</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>110186.3</v>
+        <v>39702.6</v>
       </c>
       <c r="F14">
-        <v>23415.1</v>
+        <v>12745.5</v>
       </c>
       <c r="G14">
-        <v>3770.1</v>
+        <v>867.6</v>
       </c>
       <c r="H14">
-        <v>5458.1</v>
+        <v>1905.6</v>
       </c>
       <c r="I14">
-        <v>14646.1</v>
+        <v>4078.2</v>
       </c>
       <c r="J14">
-        <v>62896.8</v>
+        <v>20105.8</v>
       </c>
     </row>
     <row r="15">
@@ -932,26 +932,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Roberto Ludeña</t>
+          <t>Roberto Jimenez</t>
         </is>
       </c>
       <c r="E15">
-        <v>124319.1</v>
+        <v>54580.5</v>
       </c>
       <c r="F15">
-        <v>34308.5</v>
+        <v>15022.4</v>
       </c>
       <c r="G15">
-        <v>2478.1</v>
+        <v>1103.7</v>
       </c>
       <c r="H15">
-        <v>6242.4</v>
+        <v>3534.6</v>
       </c>
       <c r="I15">
-        <v>34499.2</v>
+        <v>8866.5</v>
       </c>
       <c r="J15">
-        <v>46790.9</v>
+        <v>26053.3</v>
       </c>
     </row>
     <row r="16">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>89574.10000000001</v>
+        <v>31281.3</v>
       </c>
       <c r="F16">
-        <v>22458.1</v>
+        <v>6775.6</v>
       </c>
       <c r="G16">
-        <v>2200.6</v>
+        <v>193.9</v>
       </c>
       <c r="H16">
-        <v>3167</v>
+        <v>716.7000000000001</v>
       </c>
       <c r="I16">
-        <v>12601.3</v>
+        <v>7677.9</v>
       </c>
       <c r="J16">
-        <v>49147.1</v>
+        <v>15917.2</v>
       </c>
     </row>
     <row r="17">
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>141450.3</v>
+        <v>59317.4</v>
       </c>
       <c r="F17">
-        <v>20609</v>
+        <v>20598.9</v>
       </c>
       <c r="G17">
-        <v>1693.5</v>
+        <v>279.9</v>
       </c>
       <c r="H17">
-        <v>3575.1</v>
+        <v>297.5</v>
       </c>
       <c r="I17">
-        <v>10567.6</v>
+        <v>13379.8</v>
       </c>
       <c r="J17">
-        <v>105005.1</v>
+        <v>24761.2</v>
       </c>
     </row>
     <row r="18">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>51598.7</v>
+        <v>7857.2</v>
       </c>
       <c r="F18">
-        <v>13467.8</v>
+        <v>1175.8</v>
       </c>
       <c r="G18">
-        <v>2362.3</v>
+        <v>354.6</v>
       </c>
       <c r="H18">
-        <v>8158</v>
+        <v>3353.1</v>
       </c>
       <c r="I18">
-        <v>10645.5</v>
+        <v>-158.3</v>
       </c>
       <c r="J18">
-        <v>16965.1</v>
+        <v>3132.1</v>
       </c>
     </row>
     <row r="19">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="E19">
-        <v>66587.5</v>
+        <v>10129.8</v>
       </c>
       <c r="F19">
-        <v>29971.7</v>
+        <v>3737.7</v>
       </c>
       <c r="G19">
-        <v>5979.1</v>
+        <v>293</v>
       </c>
       <c r="H19">
-        <v>1450.7</v>
+        <v>715.1</v>
       </c>
       <c r="I19">
-        <v>11018.6</v>
+        <v>2645.1</v>
       </c>
       <c r="J19">
-        <v>18167.4</v>
+        <v>2738.8</v>
       </c>
     </row>
     <row r="20">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="E20">
-        <v>81398.60000000001</v>
+        <v>25264.3</v>
       </c>
       <c r="F20">
-        <v>18818.6</v>
+        <v>5826.8</v>
       </c>
       <c r="G20">
-        <v>2589</v>
+        <v>226.2</v>
       </c>
       <c r="H20">
-        <v>1315.2</v>
+        <v>3176.4</v>
       </c>
       <c r="I20">
-        <v>33518.5</v>
+        <v>8045.6</v>
       </c>
       <c r="J20">
-        <v>25157.3</v>
+        <v>7989.2</v>
       </c>
     </row>
   </sheetData>

--- a/datapresentacionventas.xlsx
+++ b/datapresentacionventas.xlsx
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>13013.1</v>
+        <v>64930.5</v>
       </c>
       <c r="F2">
-        <v>2827.2</v>
+        <v>1409.2</v>
       </c>
       <c r="H2">
-        <v>1981.3</v>
+        <v>762.7000000000001</v>
       </c>
       <c r="I2">
-        <v>5957.8</v>
+        <v>2670.4</v>
       </c>
       <c r="J2">
-        <v>2246.8</v>
+        <v>2510.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>31298.5</v>
+        <v>53108.3</v>
       </c>
       <c r="F3">
-        <v>7009.5</v>
+        <v>4351.4</v>
       </c>
       <c r="H3">
-        <v>3298.8</v>
+        <v>1662.4</v>
       </c>
       <c r="I3">
-        <v>8789</v>
+        <v>3944.5</v>
       </c>
       <c r="J3">
-        <v>12201.1</v>
+        <v>15632.3</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>43034.2</v>
+        <v>71318.7</v>
       </c>
       <c r="F4">
-        <v>5298.8</v>
+        <v>7062.9</v>
       </c>
       <c r="H4">
-        <v>-5.3</v>
+        <v>2843.3</v>
       </c>
       <c r="I4">
-        <v>11467.5</v>
+        <v>668.4</v>
       </c>
       <c r="J4">
-        <v>26273.2</v>
+        <v>14182.5</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>28367.9</v>
+        <v>54506.3</v>
       </c>
       <c r="F5">
-        <v>12163.3</v>
+        <v>3658.2</v>
       </c>
       <c r="H5">
-        <v>9448.6</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I5">
-        <v>5950.8</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>805.3</v>
+        <v>394.6</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>16580.7</v>
+        <v>67701.5</v>
       </c>
       <c r="F6">
-        <v>6583.8</v>
+        <v>5124</v>
       </c>
       <c r="H6">
-        <v>1486.8</v>
+        <v>572.7000000000001</v>
       </c>
       <c r="I6">
-        <v>3984.4</v>
+        <v>4068.8</v>
       </c>
       <c r="J6">
-        <v>4525.8</v>
+        <v>7888.4</v>
       </c>
     </row>
     <row r="7">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>12506</v>
+        <v>77919.60000000001</v>
       </c>
       <c r="F7">
-        <v>3042</v>
+        <v>2728.3</v>
       </c>
       <c r="G7">
-        <v>1350.4</v>
+        <v>672.4</v>
       </c>
       <c r="H7">
-        <v>1733</v>
+        <v>305.1</v>
       </c>
       <c r="I7">
-        <v>4133.9</v>
+        <v>1826.1</v>
       </c>
       <c r="J7">
-        <v>2246.8</v>
+        <v>2510.2</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>29694</v>
+        <v>63715.3</v>
       </c>
       <c r="F8">
-        <v>4892.5</v>
+        <v>8290.4</v>
       </c>
       <c r="G8">
-        <v>1020.5</v>
+        <v>998.3</v>
       </c>
       <c r="H8">
-        <v>2396.3</v>
+        <v>5143.3</v>
       </c>
       <c r="I8">
-        <v>9183.6</v>
+        <v>5692.5</v>
       </c>
       <c r="J8">
-        <v>12201.1</v>
+        <v>15632.3</v>
       </c>
     </row>
     <row r="9">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>45504.7</v>
+        <v>57596</v>
       </c>
       <c r="F9">
-        <v>15246.2</v>
+        <v>7420.7</v>
       </c>
       <c r="G9">
-        <v>667.5</v>
+        <v>832.8</v>
       </c>
       <c r="H9">
-        <v>273.7</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3044.1</v>
+        <v>961.4</v>
       </c>
       <c r="J9">
-        <v>26273.2</v>
+        <v>14182.5</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>17348.4</v>
+        <v>30718.7</v>
       </c>
       <c r="F10">
-        <v>4813.1</v>
+        <v>166.1</v>
       </c>
       <c r="G10">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>6734.5</v>
+        <v>366.1</v>
       </c>
       <c r="I10">
-        <v>3633.6</v>
+        <v>152.5</v>
       </c>
       <c r="J10">
-        <v>805.3</v>
+        <v>394.6</v>
       </c>
     </row>
     <row r="11">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>14759.2</v>
+        <v>68838.89999999999</v>
       </c>
       <c r="F11">
-        <v>1782.7</v>
+        <v>6817.7</v>
       </c>
       <c r="G11">
-        <v>330.2</v>
+        <v>3297.7</v>
       </c>
       <c r="H11">
-        <v>7120.9</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>999.8</v>
+        <v>4800.8</v>
       </c>
       <c r="J11">
-        <v>4525.8</v>
+        <v>7888.4</v>
       </c>
     </row>
     <row r="12">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>13558.2</v>
+        <v>61324.9</v>
       </c>
       <c r="F12">
-        <v>3851.6</v>
+        <v>18467.4</v>
       </c>
       <c r="G12">
-        <v>2709.8</v>
+        <v>1144.1</v>
       </c>
       <c r="H12">
-        <v>694.3</v>
+        <v>1611.5</v>
       </c>
       <c r="I12">
-        <v>1616.9</v>
+        <v>8913.6</v>
       </c>
       <c r="J12">
-        <v>4685.6</v>
+        <v>24561.4</v>
       </c>
     </row>
     <row r="13">
@@ -852,26 +852,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yuri Ludeña</t>
+          <t>Yuri Lude?a</t>
         </is>
       </c>
       <c r="E13">
-        <v>41878.9</v>
+        <v>107514.2</v>
       </c>
       <c r="F13">
-        <v>4082.3</v>
+        <v>18509.6</v>
       </c>
       <c r="G13">
-        <v>2563.6</v>
+        <v>2920.8</v>
       </c>
       <c r="H13">
-        <v>2878.3</v>
+        <v>4469.7</v>
       </c>
       <c r="I13">
-        <v>4267.4</v>
+        <v>8671.9</v>
       </c>
       <c r="J13">
-        <v>28087.4</v>
+        <v>58280.1</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>39702.6</v>
+        <v>122329.2</v>
       </c>
       <c r="F14">
-        <v>12745.5</v>
+        <v>17820.9</v>
       </c>
       <c r="G14">
-        <v>867.6</v>
+        <v>1557.2</v>
       </c>
       <c r="H14">
-        <v>1905.6</v>
+        <v>7187.5</v>
       </c>
       <c r="I14">
-        <v>4078.2</v>
+        <v>10842.4</v>
       </c>
       <c r="J14">
-        <v>20105.8</v>
+        <v>71394.89999999999</v>
       </c>
     </row>
     <row r="15">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="E15">
-        <v>54580.5</v>
+        <v>111657.5</v>
       </c>
       <c r="F15">
-        <v>15022.4</v>
+        <v>27405.5</v>
       </c>
       <c r="G15">
-        <v>1103.7</v>
+        <v>2140</v>
       </c>
       <c r="H15">
-        <v>3534.6</v>
+        <v>1492.2</v>
       </c>
       <c r="I15">
-        <v>8866.5</v>
+        <v>18730.4</v>
       </c>
       <c r="J15">
-        <v>26053.3</v>
+        <v>46191.5</v>
       </c>
     </row>
     <row r="16">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>31281.3</v>
+        <v>198821.1</v>
       </c>
       <c r="F16">
-        <v>6775.6</v>
+        <v>23340.1</v>
       </c>
       <c r="G16">
-        <v>193.9</v>
+        <v>1251.4</v>
       </c>
       <c r="H16">
-        <v>716.7000000000001</v>
+        <v>5443.9</v>
       </c>
       <c r="I16">
-        <v>7677.9</v>
+        <v>14755.1</v>
       </c>
       <c r="J16">
-        <v>15917.2</v>
+        <v>34429.1</v>
       </c>
     </row>
     <row r="17">
@@ -1015,24 +1015,6 @@
           <t>James Ayala</t>
         </is>
       </c>
-      <c r="E17">
-        <v>59317.4</v>
-      </c>
-      <c r="F17">
-        <v>20598.9</v>
-      </c>
-      <c r="G17">
-        <v>279.9</v>
-      </c>
-      <c r="H17">
-        <v>297.5</v>
-      </c>
-      <c r="I17">
-        <v>13379.8</v>
-      </c>
-      <c r="J17">
-        <v>24761.2</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1055,24 +1037,6 @@
           <t>Alina Baca</t>
         </is>
       </c>
-      <c r="E18">
-        <v>7857.2</v>
-      </c>
-      <c r="F18">
-        <v>1175.8</v>
-      </c>
-      <c r="G18">
-        <v>354.6</v>
-      </c>
-      <c r="H18">
-        <v>3353.1</v>
-      </c>
-      <c r="I18">
-        <v>-158.3</v>
-      </c>
-      <c r="J18">
-        <v>3132.1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1095,24 +1059,6 @@
           <t>Sahalomee Iparraguirre</t>
         </is>
       </c>
-      <c r="E19">
-        <v>10129.8</v>
-      </c>
-      <c r="F19">
-        <v>3737.7</v>
-      </c>
-      <c r="G19">
-        <v>293</v>
-      </c>
-      <c r="H19">
-        <v>715.1</v>
-      </c>
-      <c r="I19">
-        <v>2645.1</v>
-      </c>
-      <c r="J19">
-        <v>2738.8</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1134,24 +1080,6 @@
         <is>
           <t>Elizabeth Molero</t>
         </is>
-      </c>
-      <c r="E20">
-        <v>25264.3</v>
-      </c>
-      <c r="F20">
-        <v>5826.8</v>
-      </c>
-      <c r="G20">
-        <v>226.2</v>
-      </c>
-      <c r="H20">
-        <v>3176.4</v>
-      </c>
-      <c r="I20">
-        <v>8045.6</v>
-      </c>
-      <c r="J20">
-        <v>7989.2</v>
       </c>
     </row>
   </sheetData>
